--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3586.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3586.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.093532019325335</v>
+        <v>1.207771420478821</v>
       </c>
       <c r="B1">
-        <v>2.122715920056153</v>
+        <v>4.958170890808105</v>
       </c>
       <c r="C1">
-        <v>4.928481985578435</v>
+        <v>3.320107936859131</v>
       </c>
       <c r="D1">
-        <v>2.721221068538406</v>
+        <v>1.78874945640564</v>
       </c>
       <c r="E1">
-        <v>1.153430868985435</v>
+        <v>1.350434184074402</v>
       </c>
     </row>
   </sheetData>
